--- a/ig/branch/master/StructureDefinition-Phenopacket.xlsx
+++ b/ig/branch/master/StructureDefinition-Phenopacket.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T22:15:53+00:00</t>
+    <t>2023-01-27T19:24:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
